--- a/public/xbt_member_sample.xlsx
+++ b/public/xbt_member_sample.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwj20\OneDrive\문서\카카오톡 받은 파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AA6E1-6DBD-4531-9D83-D4AC0F8E1527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="2688" windowWidth="28164" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="24" windowWidth="28392" windowHeight="12504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>교육과정명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,58 +85,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SONILYOUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>성별
 (남:1 여:2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안검색요원 초기교육</t>
+  </si>
+  <si>
+    <t>수업반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>서울시노원구 상계7동 롯데아파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식회사준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안검색요원 초기교육</t>
-  </si>
-  <si>
-    <t>01027144906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HONGGILDONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gildong@naver.com</t>
+    <t>Lotte Apartment, Sanggye 7-dong, Nowon-gu, Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01427144912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손일영1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손일영2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손일영3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01427144913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01427144914</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,72 +198,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -270,22 +216,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -299,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,31 +243,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,17 +269,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +314,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -470,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -655,131 +571,217 @@
     <col min="1" max="1" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="1"/>
     <col min="8" max="8" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="9" max="9" width="30.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>30425</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8">
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F3" s="6">
         <v>30425</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G3" s="5">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="9">
-        <v>44927</v>
-      </c>
-      <c r="N2" s="9">
-        <v>45035</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>30425</v>
+      </c>
+      <c r="G4" s="5">
         <v>20</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/xbt_member_sample.xlsx
+++ b/public/xbt_member_sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwj20\OneDrive\문서\카카오톡 받은 파일\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BB50C-DD24-4EE2-B04D-8C2503BA0CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="24" windowWidth="28392" windowHeight="12504"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="28416" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>교육과정명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,34 +127,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01427144912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>손일영1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>손일영2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손일영3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01427144913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01427144914</t>
+    <t>010427144912</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,10 +242,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -269,14 +259,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -578,7 +571,7 @@
     <col min="8" max="8" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.3984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -652,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
@@ -675,10 +668,10 @@
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -689,96 +682,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>30425</v>
-      </c>
-      <c r="G3" s="5">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>30425</v>
-      </c>
-      <c r="G4" s="5">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/xbt_member_sample.xlsx
+++ b/public/xbt_member_sample.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwj20\OneDrive\문서\카카오톡 받은 파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BB50C-DD24-4EE2-B04D-8C2503BA0CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="28416" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="24" windowWidth="28392" windowHeight="12504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>교육과정명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +57,82 @@
   </si>
   <si>
     <t>담당업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일
+(YYYY-MM-DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안경력시작일
+(YYYY-MM-DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안경력종료일
+(YYYY-MM-DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONILYOUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별
+(남:1 여:2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안검색요원 초기교육</t>
+  </si>
+  <si>
+    <t>영문주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시노원구 상계7동 롯데아파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotte Apartment, Sanggye 7-dong, Nowon-gu, Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01427144912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손일영1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손일영2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손일영3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01427144913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01427144914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안면인식
+(Y, N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,73 +142,26 @@
 3 -&gt; 보안검색요원 인증평가교육 (1일 / 4시간)
 4 -&gt; 항공경비 초기교육 (5일 / 30시간)
 5 -&gt; 항공경비 정기교육 (1일 / 8시간)
-6 -&gt; 항공경비 인증평가교육 (1일 / 4시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일
-(YYYY-MM-DD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안경력시작일
-(YYYY-MM-DD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안경력종료일
-(YYYY-MM-DD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SONILYOUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별
-(남:1 여:2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안검색요원 초기교육</t>
-  </si>
-  <si>
-    <t>수업반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시노원구 상계7동 롯데아파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lotte Apartment, Sanggye 7-dong, Nowon-gu, Seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손일영1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010427144912</t>
+6 -&gt; 항공경비 인증평가교육 (1일 / 4시간)
+7 -&gt; 항공보안검색 감독자 초기 (2일/16시간)
+8 -&gt;  항공보안검색 감독자 정기 (1일/8시간)
+9 -&gt;  항공보안경비 감독자 초기 (2일/16시간)
+10 -&gt; 항공보안경비 감독자 정기 (1일/8시간)
+11 -&gt; 공항/항공사 보안 정기 (2일/16시간)
+12 -&gt; 감독자. 책임자 초기 (1일/8시간)
+13 -&gt; 행동탐지요원 초기 (2일/16시간)
+14 -&gt; 행동탐지요원 정기 (1일/8시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,10 +265,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -259,17 +282,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -379,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,134 +572,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="20.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="261" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30425</v>
+      </c>
+      <c r="H2" s="5">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>30425</v>
-      </c>
-      <c r="G2" s="5">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>30425</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>30425</v>
+      </c>
+      <c r="H4" s="5">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
